--- a/profiles/workflow/profile-crate/ro-crate-metadata.xlsx
+++ b/profiles/workflow/profile-crate/ro-crate-metadata.xlsx
@@ -11,19 +11,19 @@
     <sheet sheetId="5" name="@type=Organization" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="@type=ResourceDescriptor" state="visible" r:id="rId9"/>
     <sheet sheetId="7" name="@type=rdfsClass" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="@type=LearningResource" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="@type=CreativeWork" state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="@type=ComputerLanguage" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="@type=rdfProperty" state="visible" r:id="rId14"/>
-    <sheet sheetId="12" name="@type=ItemList" state="visible" r:id="rId15"/>
-    <sheet sheetId="13" name="@type=DigitalFormat" state="visible" r:id="rId16"/>
+    <sheet sheetId="8" name="@type=rdfProperty" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="@type=ItemList" state="visible" r:id="rId12"/>
+    <sheet sheetId="10" name="@type=LearningResource" state="visible" r:id="rId13"/>
+    <sheet sheetId="11" name="@type=DigitalFormat" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="@type=CreativeWork" state="visible" r:id="rId15"/>
+    <sheet sheetId="13" name="@type=ComputerLanguage" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -34,87 +34,87 @@
     <t>@id</t>
   </si>
   <si>
+    <t>https://w3id.org/ro/workflow-crate/</t>
+  </si>
+  <si>
+    <t>@type</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Workflow Profile</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>This is an experimental port of the RO-Crate Workflow Profile to a proposed 'RO-Crate Schema' format.</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>"#author"</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>GPL-3.0</t>
+  </si>
+  <si>
+    <t>conformsTo</t>
+  </si>
+  <si>
+    <t>"https://github.com/Language-Research-Technology/ro-crate-schema-tools/blob/main/profiles/sossplus-profile.md"</t>
+  </si>
+  <si>
+    <t>hasResource</t>
+  </si>
+  <si>
+    <t>["#hasSpecializedSchema", "#hasExampleWorkflow"]</t>
+  </si>
+  <si>
+    <t>hasPart</t>
+  </si>
+  <si>
+    <t>"profile-documentation.md"</t>
+  </si>
+  <si>
+    <t>datePublished</t>
+  </si>
+  <si>
+    <t>mainEntity</t>
+  </si>
+  <si>
     <t>./</t>
   </si>
   <si>
-    <t>@type</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Example Workflow</t>
   </si>
   <si>
-    <t>conformsTo</t>
-  </si>
-  <si>
     <t>"https://w3id.org/workflowhub/workflow-ro-crate/1.0"</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>An example workflow RO-Crate</t>
   </si>
   <si>
-    <t>license</t>
-  </si>
-  <si>
     <t>Apache-2.0</t>
   </si>
   <si>
-    <t>datePublished</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
   </si>
   <si>
-    <t>mainEntity</t>
-  </si>
-  <si>
     <t>"example_workflow.cwl"</t>
   </si>
   <si>
-    <t>hasPart</t>
-  </si>
-  <si>
     <t>["example_workflow.cwl", "diagram.svg", "README.md", "profile-documentation.md"]</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>hasResource</t>
-  </si>
-  <si>
-    <t>https://w3id.org/ro/workflow-crate/</t>
-  </si>
-  <si>
-    <t>Workflow Profile</t>
-  </si>
-  <si>
-    <t>This is an experimental port of the RO-Crate Workflow Profile to a proposed 'RO-Crate Schema' format.</t>
-  </si>
-  <si>
-    <t>"#author"</t>
-  </si>
-  <si>
-    <t>GPL-3.0</t>
-  </si>
-  <si>
-    <t>"https://github.com/Language-Research-Technology/ro-crate-schema-tools/blob/main/profiles/sossplus-profile.md"</t>
-  </si>
-  <si>
-    <t>["#hasSpecializedSchema", "#hasExampleWorkflow"]</t>
-  </si>
-  <si>
-    <t>"profile-documentation.md"</t>
-  </si>
-  <si>
     <t>dateModified</t>
   </si>
   <si>
@@ -139,7 +139,7 @@
     <t/>
   </si>
   <si>
-    <t>2025-11-06T09:53:25+11:00</t>
+    <t>2025-11-28T06:15:09+11:00</t>
   </si>
   <si>
     <t>["https://www.nationalarchives.gov.uk/PRONOM/fmt/1149", text/markdown]</t>
@@ -199,7 +199,7 @@
     <t>"http://www.w3.org/ns/dx/prof/role/schema"</t>
   </si>
   <si>
-    <t>["#RO-Crate_Metadata_Descriptor", "#Root_Data_Entity", "#Class_MainWorkflow", "#Class_MainWorkflow_Description", "#class_CreativeWork_README", "#class_Dataset_Test_Directory", "#class_Dataset_Examples_Directory"]</t>
+    <t>["#RO-Crate_Metadata_Descriptor", "#Root_Data_Entity", "#Class_MainWorkflow", "#Class_MainWorkflow_Description", "#class_CreativeWork_README", "#class_Dataset_Test_Directory", "#class_Dataset_Examples_Directory", "#Class_ImageObject_Diagram", "#RO-Crate_Metadata_Descriptor.id", "#RO-Crate_Metadata_Descriptor.about", "#prop_description_Dataset", "#prop_datePublised_Dataset", "#prop_license_Dataset", "#Property_mainEntity_Workflow", "#Property_programmingLanguage_Workflow", "#Property_programmingLanguage_WorkflowDescription", "#prop_conformsTo_Root_Data_Entity", "#Root_Data_Entity_profile_itemList", "#property_CreativeWork_README.id", "#property_CreativeWork_README.encodingFormat", "#property_CreativeWork_README.about", "#property_Dataset_Test_Directory.id", "#property_Dataset_Examples_Directory.id", "#Property_MainWorkflow_subjectOf", "http://schema.org/name", "#Property_MainWorkflow_image", "#programmingLanguages"]</t>
   </si>
   <si>
     <t>#hasExampleWorkflow</t>
@@ -319,6 +319,237 @@
     <t>The _Crate_ COULD contain a _Main Workflow Diagram_, indicated as a data entity of type `["File", "ImageObject"]</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>domainIncludes</t>
+  </si>
+  <si>
+    <t>rangeIncludes</t>
+  </si>
+  <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
+    <t>#RO-Crate_Metadata_Descriptor.id</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>ro-crate-metadata.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RO-Crate Metadata </t>
+  </si>
+  <si>
+    <t>"#RO-Crate_Metadata_Descriptor"</t>
+  </si>
+  <si>
+    <t>#RO-Crate_Metadata_Descriptor.about</t>
+  </si>
+  <si>
+    <t>This property on the RO-Crate Metadata Descriptor references the Root Data Entity.</t>
+  </si>
+  <si>
+    <t>"http://schema.org/about"</t>
+  </si>
+  <si>
+    <t>"#Root_Data_Entity"</t>
+  </si>
+  <si>
+    <t>#prop_description_Dataset</t>
+  </si>
+  <si>
+    <t>"http://schema.org/description"</t>
+  </si>
+  <si>
+    <t>"Text"</t>
+  </si>
+  <si>
+    <t>(In addition to the name) SHOULD further elaborate on the name to provide a summary of the context in which the dataset is important.</t>
+  </si>
+  <si>
+    <t>#prop_datePublised_Dataset</t>
+  </si>
+  <si>
+    <t>"http://schema.org/datePubished"</t>
+  </si>
+  <si>
+    <t>"schema:Date"</t>
+  </si>
+  <si>
+    <t>MUST be a string in ISO 8601 date format and SHOULD be specified to at least the precision of a day, MAY be a timestamp down to the millisecond.</t>
+  </si>
+  <si>
+    <t>#prop_license_Dataset</t>
+  </si>
+  <si>
+    <t>"http://schema.org/license"</t>
+  </si>
+  <si>
+    <t>["#class_CreativeWork", "schema:URL", "schema:Text"]</t>
+  </si>
+  <si>
+    <t>TODO: Deal with the supplied list of licenses (string values) SHOULD link to a Contextual Entity in the RO-Crate Metadata File with a name and description. MAY have a URI (eg for Creative Commons or Open Source licenses). MAY if necessary be a textual description of how the RO-Crate may be used</t>
+  </si>
+  <si>
+    <t>#Property_mainEntity_Workflow</t>
+  </si>
+  <si>
+    <t>Links the Root Data Entity to the Main Workflow. The RO-Crate MUST contain exactly one Main Workflow.</t>
+  </si>
+  <si>
+    <t>"http://schema.org/mainEntity"</t>
+  </si>
+  <si>
+    <t>"#Class_MainWorkflow"</t>
+  </si>
+  <si>
+    <t>#Property_programmingLanguage_Workflow</t>
+  </si>
+  <si>
+    <t>The programming language used to implement the Main Workflow. This is a string that should be a valid programming language name.</t>
+  </si>
+  <si>
+    <t>"http://schema.org/programmingLanguage"</t>
+  </si>
+  <si>
+    <t>"#programmingLanguages"</t>
+  </si>
+  <si>
+    <t>#Property_programmingLanguage_WorkflowDescription</t>
+  </si>
+  <si>
+    <t>"#Class_MainWorkflow_Description"</t>
+  </si>
+  <si>
+    <t>"#programmingLanguageCWLList"</t>
+  </si>
+  <si>
+    <t>#prop_conformsTo_Root_Data_Entity</t>
+  </si>
+  <si>
+    <t>The RO-Crate conforms to this profile. This is a link to to the profile entity</t>
+  </si>
+  <si>
+    <t>"#Root_Data_Entity_profile_itemList"</t>
+  </si>
+  <si>
+    <t>#property_CreativeWork_README.id</t>
+  </si>
+  <si>
+    <t>README file must have @id of `README.md`.</t>
+  </si>
+  <si>
+    <t>"#class_CreativeWork_README"</t>
+  </si>
+  <si>
+    <t>#property_CreativeWork_README.encodingFormat</t>
+  </si>
+  <si>
+    <t>Readme file must have an encodingFormat of `text/markdown`.</t>
+  </si>
+  <si>
+    <t>"http://schema.org/encodingFormat"</t>
+  </si>
+  <si>
+    <t>#property_CreativeWork_README.about</t>
+  </si>
+  <si>
+    <t>The README.md file SHOULD have an about property referencing the Root Data Entity.</t>
+  </si>
+  <si>
+    <t>#property_Dataset_Test_Directory.id</t>
+  </si>
+  <si>
+    <t>test/</t>
+  </si>
+  <si>
+    <t>"#class_Dataset_Test_Directory"</t>
+  </si>
+  <si>
+    <t>#property_Dataset_Examples_Directory.id</t>
+  </si>
+  <si>
+    <t>examples/</t>
+  </si>
+  <si>
+    <t>"#class_Dataset_Examples_Directory"</t>
+  </si>
+  <si>
+    <t>#Property_MainWorkflow_subjectOf</t>
+  </si>
+  <si>
+    <t>Main Workflow to a workflow description. The RO-Crate MUST contain exactly one Main Workflow Description.</t>
+  </si>
+  <si>
+    <t>subjectOf</t>
+  </si>
+  <si>
+    <t>"http://schema.org/subjectOf"</t>
+  </si>
+  <si>
+    <t>http://schema.org/name</t>
+  </si>
+  <si>
+    <t>"http://schema.org/name"</t>
+  </si>
+  <si>
+    <t>SHOULD identify the dataset to humans well enough to disambiguate it from other RO-Crates</t>
+  </si>
+  <si>
+    <t>#Property_MainWorkflow_image</t>
+  </si>
+  <si>
+    <t>If  _Main Workflow Diagram_ is present, the _Main Workflow_ MUST refer to it via `image`.</t>
+  </si>
+  <si>
+    <t>"http://schema.org/image"</t>
+  </si>
+  <si>
+    <t>"#Class_ImageObject_Diagram"</t>
+  </si>
+  <si>
+    <t>itemListElement</t>
+  </si>
+  <si>
+    <t>#Root_Data_Entity_profile_itemList</t>
+  </si>
+  <si>
+    <t>ItemList</t>
+  </si>
+  <si>
+    <t>Profile Item List</t>
+  </si>
+  <si>
+    <t>A list of valid profile values for this RO-Crate Profile</t>
+  </si>
+  <si>
+    <t>#programmingLanguages</t>
+  </si>
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>A list of programming languages that can be used to implement the Main Workflow</t>
+  </si>
+  <si>
+    <t>["https://w3id.org/workflowhub/workflow-ro-crate#cwl", "https://w3id.org/workflowhub/workflow-ro-crate#galaxy", "https://w3id.org/workflowhub/workflow-ro-crate#knime", "https://w3id.org/workflowhub/workflow-ro-crate#nextflow", "https://w3id.org/workflowhub/workflow-ro-crate#snakemake"]</t>
+  </si>
+  <si>
+    <t>#programmingLanguageCWLList</t>
+  </si>
+  <si>
+    <t>Common Workflow Language</t>
+  </si>
+  <si>
+    <t>A list containing only the Common Workflow Language (CWL) as a programming language for the WWorkflow Description.</t>
+  </si>
+  <si>
     <t>#WorkflowExample</t>
   </si>
   <si>
@@ -331,6 +562,15 @@
     <t>["./", "https://w3id.org/workflowhub/workflow-ro-crate/1.0", "example_workflow.cwl", "diagram.svg", "README.md"]</t>
   </si>
   <si>
+    <t>https://www.nationalarchives.gov.uk/PRONOM/fmt/1149</t>
+  </si>
+  <si>
+    <t>DigitalFormat</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
@@ -364,9 +604,6 @@
     <t>ComputerLanguage</t>
   </si>
   <si>
-    <t>Common Workflow Language</t>
-  </si>
-  <si>
     <t>CWL</t>
   </si>
   <si>
@@ -413,240 +650,6 @@
   </si>
   <si>
     <t>"https://snakemake.readthedocs.io"</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rdfs:label</t>
-  </si>
-  <si>
-    <t>domainIncludes</t>
-  </si>
-  <si>
-    <t>rangeIncludes</t>
-  </si>
-  <si>
-    <t>rdfs:comment</t>
-  </si>
-  <si>
-    <t>#RO-Crate_Metadata_Descriptor.id</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>ro-crate-metadata.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The RO-Crate Metadata </t>
-  </si>
-  <si>
-    <t>"#RO-Crate_Metadata_Descriptor"</t>
-  </si>
-  <si>
-    <t>#RO-Crate_Metadata_Descriptor.about</t>
-  </si>
-  <si>
-    <t>This property on the RO-Crate Metadata Descriptor references the Root Data Entity.</t>
-  </si>
-  <si>
-    <t>"http://schema.org/about"</t>
-  </si>
-  <si>
-    <t>"#Root_Data_Entity"</t>
-  </si>
-  <si>
-    <t>#prop_description_Dataset</t>
-  </si>
-  <si>
-    <t>"http://schema.org/description"</t>
-  </si>
-  <si>
-    <t>"Text"</t>
-  </si>
-  <si>
-    <t>(In addition to the name) SHOULD further elaborate on the name to provide a summary of the context in which the dataset is important.</t>
-  </si>
-  <si>
-    <t>#prop_datePublised_Dataset</t>
-  </si>
-  <si>
-    <t>"http://schema.org/datePubished"</t>
-  </si>
-  <si>
-    <t>"schema:Date"</t>
-  </si>
-  <si>
-    <t>MUST be a string in ISO 8601 date format and SHOULD be specified to at least the precision of a day, MAY be a timestamp down to the millisecond.</t>
-  </si>
-  <si>
-    <t>#prop_license_Dataset</t>
-  </si>
-  <si>
-    <t>"http://schema.org/license"</t>
-  </si>
-  <si>
-    <t>["#class_CreativeWork", "schema:URL", "schema:Text"]</t>
-  </si>
-  <si>
-    <t>TODO: Deal with the supplied list of licenses (string values) SHOULD link to a Contextual Entity in the RO-Crate Metadata File with a name and description. MAY have a URI (eg for Creative Commons or Open Source licenses). MAY if necessary be a textual description of how the RO-Crate may be used</t>
-  </si>
-  <si>
-    <t>#Property_mainEntity_Workflow</t>
-  </si>
-  <si>
-    <t>Links the Root Data Entity to the Main Workflow. The RO-Crate MUST contain exactly one Main Workflow.</t>
-  </si>
-  <si>
-    <t>"http://schema.org/mainEntity"</t>
-  </si>
-  <si>
-    <t>"#Class_MainWorkflow"</t>
-  </si>
-  <si>
-    <t>#Property_programmingLanguage_Workflow</t>
-  </si>
-  <si>
-    <t>The programming language used to implement the Main Workflow. This is a string that should be a valid programming language name.</t>
-  </si>
-  <si>
-    <t>"http://schema.org/programmingLanguage"</t>
-  </si>
-  <si>
-    <t>"#programmingLanguages"</t>
-  </si>
-  <si>
-    <t>#Property_programmingLanguage_WorkflowDescription</t>
-  </si>
-  <si>
-    <t>"#Class_MainWorkflow_Description"</t>
-  </si>
-  <si>
-    <t>"#programmingLanguageCWLList"</t>
-  </si>
-  <si>
-    <t>#prop_conformsTo_Root_Data_Entity</t>
-  </si>
-  <si>
-    <t>The RO-Crate conforms to this profile. This is a link to to the profile entity</t>
-  </si>
-  <si>
-    <t>"#Root_Data_Entity_profile_itemList"</t>
-  </si>
-  <si>
-    <t>#class_CreativeWork_README.id</t>
-  </si>
-  <si>
-    <t>"#class_CreativeWork_README"</t>
-  </si>
-  <si>
-    <t>#class_CreativeWork_README.encodingFormat</t>
-  </si>
-  <si>
-    <t>Readme file must have an encodingFormat of `text/markdown`.</t>
-  </si>
-  <si>
-    <t>"http://schema.org/encodingFormat"</t>
-  </si>
-  <si>
-    <t>#class_CreativeWork_README.about</t>
-  </si>
-  <si>
-    <t>The README.md file SHOULD have an about property referencing the Root Data Entity.</t>
-  </si>
-  <si>
-    <t>#class_Dataset_Test_Directory.id</t>
-  </si>
-  <si>
-    <t>test/</t>
-  </si>
-  <si>
-    <t>"#class_Dataset_Test_Directory"</t>
-  </si>
-  <si>
-    <t>#class_Dataset_Examples_Directory.id</t>
-  </si>
-  <si>
-    <t>examples/</t>
-  </si>
-  <si>
-    <t>"#class_Dataset_Examples_Directory"</t>
-  </si>
-  <si>
-    <t>http://schema.org/name</t>
-  </si>
-  <si>
-    <t>"http://schema.org/name"</t>
-  </si>
-  <si>
-    <t>SHOULD identify the dataset to humans well enough to disambiguate it from other RO-Crates</t>
-  </si>
-  <si>
-    <t>#Property_MainWorkflow_subjectOf</t>
-  </si>
-  <si>
-    <t>Main Workflow to a workflow description. The RO-Crate MUST contain exactly one Main Workflow Description.</t>
-  </si>
-  <si>
-    <t>subjectOf</t>
-  </si>
-  <si>
-    <t>"http://schema.org/subjectOf"</t>
-  </si>
-  <si>
-    <t>#Property_MainWorkflow_image</t>
-  </si>
-  <si>
-    <t>If  _Main Workflow Diagram_ is present, the _Main Workflow_ MUST refer to it via `image`.</t>
-  </si>
-  <si>
-    <t>"http://schema.org/image"</t>
-  </si>
-  <si>
-    <t>"#Class_ImageObject_Diagram"</t>
-  </si>
-  <si>
-    <t>itemListElement</t>
-  </si>
-  <si>
-    <t>#programmingLanguages</t>
-  </si>
-  <si>
-    <t>ItemList</t>
-  </si>
-  <si>
-    <t>Programming Languages</t>
-  </si>
-  <si>
-    <t>A list of programming languages that can be used to implement the Main Workflow</t>
-  </si>
-  <si>
-    <t>["https://w3id.org/workflowhub/workflow-ro-crate#cwl", "https://w3id.org/workflowhub/workflow-ro-crate#galaxy", "https://w3id.org/workflowhub/workflow-ro-crate#knime", "https://w3id.org/workflowhub/workflow-ro-crate#nextflow", "https://w3id.org/workflowhub/workflow-ro-crate#snakemake"]</t>
-  </si>
-  <si>
-    <t>#programmingLanguageCWLList</t>
-  </si>
-  <si>
-    <t>A list containing only the Common Workflow Language (CWL) as a programming language for the WWorkflow Description.</t>
-  </si>
-  <si>
-    <t>#Root_Data_Entity_profile_itemList</t>
-  </si>
-  <si>
-    <t>Profile Item List</t>
-  </si>
-  <si>
-    <t>A list of valid profile values for this RO-Crate Profile</t>
-  </si>
-  <si>
-    <t>https://www.nationalarchives.gov.uk/PRONOM/fmt/1149</t>
-  </si>
-  <si>
-    <t>DigitalFormat</t>
-  </si>
-  <si>
-    <t>Markdown</t>
   </si>
 </sst>
 </file>
@@ -1124,677 +1127,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="12" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" t="s">
-        <v>188</v>
-      </c>
-      <c r="K17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -1811,61 +1144,27 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -1895,13 +1194,183 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E6" t="s">
         <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1952,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -2024,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
@@ -2070,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -2101,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +1714,7 @@
         <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,7 +1897,555 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -2445,75 +2462,61 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
